--- a/0_1_Output_Data/5_ifoCAST_error_series_GVA_last_rep/ifoCAst_errors_last_rep_first_GVA.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_GVA_last_rep/ifoCAst_errors_last_rep_first_GVA.xlsx
@@ -634,6 +634,9 @@
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B24">
+        <v>0.2651053283564908</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
